--- a/template/productp1.xlsx
+++ b/template/productp1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,6 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEAF1AE-645B-42FE-9C6A-338CDFE0616F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21930" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>生产通知单</t>
   </si>
@@ -105,9 +106,6 @@
   </si>
   <si>
     <t>缩水</t>
-  </si>
-  <si>
-    <t>工艺说明及注意事项</t>
   </si>
   <si>
     <t>制单人:</t>
@@ -117,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,12 +130,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -145,7 +137,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -332,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,19 +358,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -375,88 +397,106 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,8 +526,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -811,98 +851,99 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A41:XFD43"/>
+      <selection activeCell="C7" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="9" width="4.625" customWidth="1"/>
-    <col min="10" max="10" width="5.625" customWidth="1"/>
-    <col min="11" max="11" width="7.125" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="14" width="6.625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="7" width="7" customWidth="1"/>
+    <col min="8" max="10" width="7.125" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="13" max="14" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="39" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="8" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="39" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="8" t="s">
+      <c r="G3" s="46"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -911,36 +952,36 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="51">
         <v>32</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="51">
         <v>34</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="51">
         <v>36</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="51">
         <v>38</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="51">
         <v>40</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="51">
         <v>42</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="51">
         <v>44</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="51">
         <v>46</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -949,21 +990,21 @@
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -974,12 +1015,12 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="28"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="33"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -990,12 +1031,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="30"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1006,12 +1047,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="30"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="36"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1022,12 +1063,12 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="36"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1038,15 +1079,15 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="30"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="36"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1056,29 +1097,29 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="30"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="36"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="15" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="30"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
@@ -1086,231 +1127,231 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="30"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="36"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="30"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
     </row>
     <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="39"/>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="11" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="19"/>
-    </row>
-    <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="22"/>
-    </row>
-    <row r="21" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="11" t="s">
+      <c r="M18" s="17"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="27"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="30"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="13"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="19"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="14" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="24"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="1" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="1" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="22"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="27"/>
     </row>
     <row r="25" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="11">
         <v>32</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="11">
         <v>34</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="11">
         <v>36</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="11">
         <v>38</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="11">
         <v>40</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="11">
         <v>42</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="11">
         <v>44</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="11">
         <v>46</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="25"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="30"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
@@ -1324,11 +1365,9 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
@@ -1342,9 +1381,9 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -1358,9 +1397,9 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
@@ -1374,9 +1413,9 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
@@ -1390,9 +1429,9 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
@@ -1406,9 +1445,9 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
@@ -1422,9 +1461,9 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -1438,9 +1477,9 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
@@ -1454,9 +1493,9 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
@@ -1470,9 +1509,9 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
@@ -1486,9 +1525,9 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
@@ -1502,9 +1541,9 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
@@ -1518,9 +1557,9 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
@@ -1534,9 +1573,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
@@ -1550,13 +1589,13 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1568,9 +1607,9 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
@@ -1584,9 +1623,9 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
     </row>
     <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B43" s="5"/>
@@ -1604,31 +1643,31 @@
       <c r="N43" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F13:K14"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="F13:K14"/>
     <mergeCell ref="L4:N6"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="L26:N40"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="A24:C24"/>
@@ -1642,8 +1681,9 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:K15"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1658,7 +1698,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1672,7 +1712,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/template/productp1.xlsx
+++ b/template/productp1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/home/pan/highable/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEAF1AE-645B-42FE-9C6A-338CDFE0616F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3ABAF370-A0F0-0F4E-9294-E1796B1D4E32}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21930" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="30720" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>生产通知单</t>
   </si>
@@ -106,16 +106,13 @@
   </si>
   <si>
     <t>缩水</t>
-  </si>
-  <si>
-    <t>制单人:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,9 +358,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -382,12 +376,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,9 +424,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -472,32 +493,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,161 +871,145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="7" width="7" customWidth="1"/>
-    <col min="8" max="10" width="7.125" customWidth="1"/>
+    <col min="8" max="10" width="7.1640625" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="12.25" customWidth="1"/>
-    <col min="13" max="14" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="14" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:14" ht="21">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-    </row>
-    <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="46" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="13" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-    </row>
-    <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="1:14" ht="21" customHeight="1">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="46" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="13" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" ht="17">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" ht="17">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="51">
-        <v>32</v>
-      </c>
-      <c r="D5" s="51">
-        <v>34</v>
-      </c>
-      <c r="E5" s="51">
-        <v>36</v>
-      </c>
-      <c r="F5" s="51">
-        <v>38</v>
-      </c>
-      <c r="G5" s="51">
-        <v>40</v>
-      </c>
-      <c r="H5" s="51">
-        <v>42</v>
-      </c>
-      <c r="I5" s="51">
-        <v>44</v>
-      </c>
-      <c r="J5" s="51">
-        <v>46</v>
-      </c>
-      <c r="K5" s="51" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:14" ht="17">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" ht="17">
+      <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1015,12 +1020,12 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:14" ht="17">
+      <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1031,12 +1036,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="36"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="44"/>
+    </row>
+    <row r="9" spans="1:14" ht="17">
+      <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1047,12 +1052,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="36"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="44"/>
+    </row>
+    <row r="10" spans="1:14" ht="17">
+      <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1063,12 +1068,12 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="36"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="44"/>
+    </row>
+    <row r="11" spans="1:14" ht="17">
+      <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1079,15 +1084,15 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="36"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="44"/>
+    </row>
+    <row r="12" spans="1:14" ht="17">
+      <c r="A12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1097,18 +1102,18 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="36"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="41" t="s">
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="44"/>
+    </row>
+    <row r="13" spans="1:14" ht="17">
+      <c r="A13" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="20" t="s">
         <v>15</v>
       </c>
@@ -1117,11 +1122,11 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L13" s="42"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="44"/>
+    </row>
+    <row r="14" spans="1:14" ht="17">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1133,47 +1138,47 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="36"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
+      <c r="L14" s="42"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="44"/>
+    </row>
+    <row r="15" spans="1:14" ht="17">
+      <c r="A15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="44"/>
+    </row>
+    <row r="16" spans="1:14" ht="17">
+      <c r="A16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="36"/>
-    </row>
-    <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44"/>
+    </row>
+    <row r="17" spans="1:14" ht="13.5" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>18</v>
       </c>
@@ -1187,11 +1192,11 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="39"/>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L17" s="45"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="47"/>
+    </row>
+    <row r="18" spans="1:14" ht="17">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -1203,13 +1208,13 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="18"/>
-    </row>
-    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M18" s="26"/>
+      <c r="N18" s="27"/>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" customHeight="1">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -1221,11 +1226,11 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="24"/>
-    </row>
-    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="32"/>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" customHeight="1">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -1237,11 +1242,11 @@
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="27"/>
-    </row>
-    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L20" s="33"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="35"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -1253,11 +1258,11 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="30"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L21" s="36"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="38"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" customHeight="1">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -1269,13 +1274,13 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="17"/>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M22" s="26"/>
+      <c r="N22" s="27"/>
+    </row>
+    <row r="23" spans="1:14" ht="13.5" customHeight="1">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -1286,74 +1291,58 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="24"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="19" t="s">
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="32"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="8" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="8" t="s">
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="27"/>
-    </row>
-    <row r="25" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+      <c r="J24" s="14"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="35"/>
+    </row>
+    <row r="25" spans="1:14" ht="26" customHeight="1">
+      <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="11">
-        <v>32</v>
-      </c>
-      <c r="C25" s="11">
-        <v>34</v>
-      </c>
-      <c r="D25" s="11">
-        <v>36</v>
-      </c>
-      <c r="E25" s="11">
-        <v>38</v>
-      </c>
-      <c r="F25" s="11">
-        <v>40</v>
-      </c>
-      <c r="G25" s="11">
-        <v>42</v>
-      </c>
-      <c r="H25" s="11">
-        <v>44</v>
-      </c>
-      <c r="I25" s="11">
-        <v>46</v>
-      </c>
-      <c r="J25" s="11" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="28"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="30"/>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L25" s="36"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="38"/>
+    </row>
+    <row r="26" spans="1:14" ht="17">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1365,11 +1354,11 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L26" s="52"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="54"/>
+    </row>
+    <row r="27" spans="1:14" ht="17">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1381,11 +1370,11 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L27" s="55"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="57"/>
+    </row>
+    <row r="28" spans="1:14" ht="17">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1397,11 +1386,11 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L28" s="55"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="57"/>
+    </row>
+    <row r="29" spans="1:14" ht="17">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1413,11 +1402,11 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L29" s="55"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="57"/>
+    </row>
+    <row r="30" spans="1:14" ht="17">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1429,11 +1418,11 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L30" s="55"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="57"/>
+    </row>
+    <row r="31" spans="1:14" ht="17">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1445,11 +1434,11 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L31" s="55"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="57"/>
+    </row>
+    <row r="32" spans="1:14" ht="17">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1461,11 +1450,11 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L32" s="55"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="57"/>
+    </row>
+    <row r="33" spans="1:14" ht="17">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1477,11 +1466,11 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L33" s="55"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="57"/>
+    </row>
+    <row r="34" spans="1:14" ht="17">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1493,11 +1482,11 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L34" s="55"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="57"/>
+    </row>
+    <row r="35" spans="1:14" ht="17">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1509,11 +1498,11 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L35" s="55"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="57"/>
+    </row>
+    <row r="36" spans="1:14" ht="17">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1525,11 +1514,11 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L36" s="55"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="57"/>
+    </row>
+    <row r="37" spans="1:14" ht="17">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1541,11 +1530,11 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L37" s="55"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="57"/>
+    </row>
+    <row r="38" spans="1:14" ht="17">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1557,11 +1546,11 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L38" s="55"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="57"/>
+    </row>
+    <row r="39" spans="1:14" ht="17">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1573,11 +1562,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L39" s="55"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="57"/>
+    </row>
+    <row r="40" spans="1:14" ht="17">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1589,14 +1578,12 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="L40" s="58"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="60"/>
+    </row>
+    <row r="41" spans="1:14" ht="17">
+      <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1611,7 +1598,7 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="17">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1627,7 +1614,7 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="17">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1643,7 +1630,30 @@
       <c r="N43" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
+    <mergeCell ref="L26:N40"/>
+    <mergeCell ref="L4:N6"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A17:K23"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N25"/>
+    <mergeCell ref="L19:N21"/>
+    <mergeCell ref="L7:N17"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="A3:B3"/>
@@ -1660,28 +1670,6 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L4:N6"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A17:K23"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N25"/>
-    <mergeCell ref="L19:N21"/>
-    <mergeCell ref="L7:N17"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:K15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1696,7 +1684,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1710,7 +1698,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/productp1.xlsx
+++ b/template/productp1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92781D22-90BA-456A-BBA2-791371F6BC29}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117C5EE2-AD68-4E58-91B4-12D86DE7D05B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21615" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -849,8 +849,107 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -882,12 +981,15 @@
     <xf numFmtId="176" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -897,107 +999,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:R20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -1470,26 +1476,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="33" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="82"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="72"/>
       <c r="S1" s="4"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -1505,25 +1511,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
       <c r="K2" s="48"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
       <c r="R2" s="2"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
@@ -1540,26 +1546,26 @@
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="48"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="2"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="87"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75"/>
       <c r="S3" s="7"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -1571,28 +1577,28 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="1:27" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
       <c r="M4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="10"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="81"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="86"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -1604,32 +1610,32 @@
       <c r="AA4" s="5"/>
     </row>
     <row r="5" spans="1:27" ht="21" customHeight="1">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="82"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="105" t="s">
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="81" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="N5" s="14"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="87"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -1641,28 +1647,28 @@
       <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:27" ht="21" customHeight="1" thickBot="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="83"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="87"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -1674,8 +1680,8 @@
       <c r="AA6" s="5"/>
     </row>
     <row r="7" spans="1:27" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="97"/>
-      <c r="B7" s="98"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="58"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -1690,8 +1696,8 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="83"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="87"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -1703,8 +1709,8 @@
       <c r="AA7" s="5"/>
     </row>
     <row r="8" spans="1:27" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98"/>
+      <c r="A8" s="120"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="58"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -1719,8 +1725,8 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="83"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="87"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -1732,8 +1738,8 @@
       <c r="AA8" s="5"/>
     </row>
     <row r="9" spans="1:27" ht="30" customHeight="1" thickBot="1">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="58"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -1748,8 +1754,8 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="83"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="87"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -1761,8 +1767,8 @@
       <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="1:27" ht="30" customHeight="1" thickBot="1">
-      <c r="A10" s="97"/>
-      <c r="B10" s="98"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="58"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -1777,8 +1783,8 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="83"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="87"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -1790,8 +1796,8 @@
       <c r="AA10" s="5"/>
     </row>
     <row r="11" spans="1:27" ht="30" customHeight="1" thickBot="1">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="58"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -1806,8 +1812,8 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="83"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="87"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -1819,11 +1825,11 @@
       <c r="AA11" s="5"/>
     </row>
     <row r="12" spans="1:27" ht="36" customHeight="1">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -1837,8 +1843,8 @@
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="83"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="87"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -1850,26 +1856,26 @@
       <c r="AA12" s="7"/>
     </row>
     <row r="13" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="91"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="98"/>
       <c r="M13" s="20"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="83"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="87"/>
       <c r="S13" s="22"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -1881,8 +1887,8 @@
       <c r="AA13" s="7"/>
     </row>
     <row r="14" spans="1:27" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="23"/>
       <c r="D14" s="60"/>
       <c r="E14" s="60"/>
@@ -1897,8 +1903,8 @@
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
       <c r="P14" s="26"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="74"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="89"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -1919,21 +1925,21 @@
         <v>16</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="72" t="s">
+      <c r="M15" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="74"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="89"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -1945,26 +1951,26 @@
       <c r="AA15" s="7"/>
     </row>
     <row r="16" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="113"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="67"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -1990,12 +1996,12 @@
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
       <c r="L17" s="33"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="111"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="64"/>
       <c r="S17" s="34"/>
       <c r="T17" s="34"/>
       <c r="U17" s="34"/>
@@ -2019,12 +2025,12 @@
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
       <c r="L18" s="37"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="111"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="64"/>
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
       <c r="U18" s="34"/>
@@ -2048,12 +2054,12 @@
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
       <c r="L19" s="41"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115"/>
-      <c r="R19" s="116"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="70"/>
       <c r="S19" s="42"/>
       <c r="T19" s="42"/>
       <c r="U19" s="42"/>
@@ -2077,14 +2083,14 @@
       <c r="J20" s="39"/>
       <c r="K20" s="39"/>
       <c r="L20" s="41"/>
-      <c r="M20" s="117" t="s">
+      <c r="M20" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="119"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="116"/>
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
       <c r="U20" s="42"/>
@@ -2127,24 +2133,24 @@
       <c r="AA21" s="5"/>
     </row>
     <row r="22" spans="1:27" ht="31.5" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="71"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="112"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -2156,24 +2162,24 @@
       <c r="AA22" s="5"/>
     </row>
     <row r="23" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="71"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="112"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -2185,24 +2191,24 @@
       <c r="AA23" s="5"/>
     </row>
     <row r="24" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="71"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="112"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -2214,24 +2220,24 @@
       <c r="AA24" s="5"/>
     </row>
     <row r="25" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="71"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="112"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -2243,24 +2249,24 @@
       <c r="AA25" s="5"/>
     </row>
     <row r="26" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="71"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="112"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -2272,24 +2278,24 @@
       <c r="AA26" s="5"/>
     </row>
     <row r="27" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="71"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="112"/>
       <c r="S27" s="46"/>
       <c r="T27" s="47"/>
       <c r="U27" s="47"/>
@@ -2301,24 +2307,24 @@
       <c r="AA27" s="5"/>
     </row>
     <row r="28" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A28" s="69"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="71"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="112"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -2361,24 +2367,24 @@
       <c r="AA29" s="5"/>
     </row>
     <row r="30" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A30" s="63"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="65"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="106"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -2390,24 +2396,24 @@
       <c r="AA30" s="5"/>
     </row>
     <row r="31" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="65"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="106"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -2419,24 +2425,24 @@
       <c r="AA31" s="5"/>
     </row>
     <row r="32" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A32" s="63"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="65"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="106"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -2448,24 +2454,24 @@
       <c r="AA32" s="5"/>
     </row>
     <row r="33" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A33" s="63"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="65"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="106"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -2477,24 +2483,24 @@
       <c r="AA33" s="5"/>
     </row>
     <row r="34" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="65"/>
+      <c r="A34" s="104"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="106"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
@@ -2506,24 +2512,24 @@
       <c r="AA34" s="5"/>
     </row>
     <row r="35" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A35" s="63"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="65"/>
+      <c r="A35" s="104"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="106"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -2535,24 +2541,24 @@
       <c r="AA35" s="5"/>
     </row>
     <row r="36" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A36" s="63"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="65"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="106"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -2564,24 +2570,24 @@
       <c r="AA36" s="5"/>
     </row>
     <row r="37" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A37" s="63"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="65"/>
+      <c r="A37" s="104"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="106"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -2593,24 +2599,24 @@
       <c r="AA37" s="5"/>
     </row>
     <row r="38" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A38" s="63"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="65"/>
+      <c r="A38" s="104"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="105"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="105"/>
+      <c r="R38" s="106"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -2622,24 +2628,24 @@
       <c r="AA38" s="5"/>
     </row>
     <row r="39" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A39" s="63"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="65"/>
+      <c r="A39" s="104"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="105"/>
+      <c r="R39" s="106"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -2651,24 +2657,24 @@
       <c r="AA39" s="5"/>
     </row>
     <row r="40" spans="1:27" ht="17.25" customHeight="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="65"/>
+      <c r="A40" s="104"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="106"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -2680,24 +2686,24 @@
       <c r="AA40" s="5"/>
     </row>
     <row r="41" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A41" s="63"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="65"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="105"/>
+      <c r="O41" s="105"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="105"/>
+      <c r="R41" s="106"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -2709,24 +2715,24 @@
       <c r="AA41" s="5"/>
     </row>
     <row r="42" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="65"/>
+      <c r="A42" s="104"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="105"/>
+      <c r="R42" s="106"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -2738,24 +2744,24 @@
       <c r="AA42" s="5"/>
     </row>
     <row r="43" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A43" s="63"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="65"/>
+      <c r="A43" s="104"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="105"/>
+      <c r="R43" s="106"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -2767,24 +2773,24 @@
       <c r="AA43" s="5"/>
     </row>
     <row r="44" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A44" s="63"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="65"/>
+      <c r="A44" s="104"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="105"/>
+      <c r="N44" s="105"/>
+      <c r="O44" s="105"/>
+      <c r="P44" s="105"/>
+      <c r="Q44" s="105"/>
+      <c r="R44" s="106"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
@@ -2796,24 +2802,24 @@
       <c r="AA44" s="5"/>
     </row>
     <row r="45" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A45" s="63"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="64"/>
-      <c r="R45" s="65"/>
+      <c r="A45" s="104"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="105"/>
+      <c r="R45" s="106"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
@@ -2825,24 +2831,24 @@
       <c r="AA45" s="5"/>
     </row>
     <row r="46" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A46" s="63"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="64"/>
-      <c r="P46" s="64"/>
-      <c r="Q46" s="64"/>
-      <c r="R46" s="65"/>
+      <c r="A46" s="104"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="105"/>
+      <c r="M46" s="105"/>
+      <c r="N46" s="105"/>
+      <c r="O46" s="105"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="105"/>
+      <c r="R46" s="106"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
@@ -2854,24 +2860,24 @@
       <c r="AA46" s="5"/>
     </row>
     <row r="47" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A47" s="63"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="64"/>
-      <c r="R47" s="65"/>
+      <c r="A47" s="104"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="105"/>
+      <c r="O47" s="105"/>
+      <c r="P47" s="105"/>
+      <c r="Q47" s="105"/>
+      <c r="R47" s="106"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
@@ -2883,24 +2889,24 @@
       <c r="AA47" s="5"/>
     </row>
     <row r="48" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A48" s="63"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="64"/>
-      <c r="P48" s="64"/>
-      <c r="Q48" s="64"/>
-      <c r="R48" s="65"/>
+      <c r="A48" s="104"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="105"/>
+      <c r="L48" s="105"/>
+      <c r="M48" s="105"/>
+      <c r="N48" s="105"/>
+      <c r="O48" s="105"/>
+      <c r="P48" s="105"/>
+      <c r="Q48" s="105"/>
+      <c r="R48" s="106"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
@@ -2912,24 +2918,24 @@
       <c r="AA48" s="5"/>
     </row>
     <row r="49" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A49" s="63"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="64"/>
-      <c r="R49" s="65"/>
+      <c r="A49" s="104"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="105"/>
+      <c r="N49" s="105"/>
+      <c r="O49" s="105"/>
+      <c r="P49" s="105"/>
+      <c r="Q49" s="105"/>
+      <c r="R49" s="106"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
@@ -2941,24 +2947,24 @@
       <c r="AA49" s="5"/>
     </row>
     <row r="50" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A50" s="63"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="64"/>
-      <c r="O50" s="64"/>
-      <c r="P50" s="64"/>
-      <c r="Q50" s="64"/>
-      <c r="R50" s="65"/>
+      <c r="A50" s="104"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="105"/>
+      <c r="L50" s="105"/>
+      <c r="M50" s="105"/>
+      <c r="N50" s="105"/>
+      <c r="O50" s="105"/>
+      <c r="P50" s="105"/>
+      <c r="Q50" s="105"/>
+      <c r="R50" s="106"/>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
@@ -2970,24 +2976,24 @@
       <c r="AA50" s="5"/>
     </row>
     <row r="51" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A51" s="63"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="65"/>
+      <c r="A51" s="104"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="105"/>
+      <c r="Q51" s="105"/>
+      <c r="R51" s="106"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
@@ -2999,24 +3005,24 @@
       <c r="AA51" s="5"/>
     </row>
     <row r="52" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A52" s="63"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="64"/>
-      <c r="M52" s="64"/>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="64"/>
-      <c r="Q52" s="64"/>
-      <c r="R52" s="65"/>
+      <c r="A52" s="104"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="105"/>
+      <c r="O52" s="105"/>
+      <c r="P52" s="105"/>
+      <c r="Q52" s="105"/>
+      <c r="R52" s="106"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
@@ -3028,24 +3034,24 @@
       <c r="AA52" s="5"/>
     </row>
     <row r="53" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A53" s="63"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="64"/>
-      <c r="N53" s="64"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="64"/>
-      <c r="Q53" s="64"/>
-      <c r="R53" s="65"/>
+      <c r="A53" s="104"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="105"/>
+      <c r="O53" s="105"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="105"/>
+      <c r="R53" s="106"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
@@ -3057,24 +3063,24 @@
       <c r="AA53" s="5"/>
     </row>
     <row r="54" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A54" s="63"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="64"/>
-      <c r="O54" s="64"/>
-      <c r="P54" s="64"/>
-      <c r="Q54" s="64"/>
-      <c r="R54" s="65"/>
+      <c r="A54" s="104"/>
+      <c r="B54" s="105"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="105"/>
+      <c r="N54" s="105"/>
+      <c r="O54" s="105"/>
+      <c r="P54" s="105"/>
+      <c r="Q54" s="105"/>
+      <c r="R54" s="106"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
@@ -3086,24 +3092,24 @@
       <c r="AA54" s="5"/>
     </row>
     <row r="55" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A55" s="63"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="64"/>
-      <c r="O55" s="64"/>
-      <c r="P55" s="64"/>
-      <c r="Q55" s="64"/>
-      <c r="R55" s="65"/>
+      <c r="A55" s="104"/>
+      <c r="B55" s="105"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="105"/>
+      <c r="N55" s="105"/>
+      <c r="O55" s="105"/>
+      <c r="P55" s="105"/>
+      <c r="Q55" s="105"/>
+      <c r="R55" s="106"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
@@ -3115,24 +3121,24 @@
       <c r="AA55" s="5"/>
     </row>
     <row r="56" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A56" s="63"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="64"/>
-      <c r="O56" s="64"/>
-      <c r="P56" s="64"/>
-      <c r="Q56" s="64"/>
-      <c r="R56" s="65"/>
+      <c r="A56" s="104"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="105"/>
+      <c r="N56" s="105"/>
+      <c r="O56" s="105"/>
+      <c r="P56" s="105"/>
+      <c r="Q56" s="105"/>
+      <c r="R56" s="106"/>
       <c r="S56" s="45"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
@@ -3144,24 +3150,24 @@
       <c r="AA56" s="5"/>
     </row>
     <row r="57" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A57" s="63"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="64"/>
-      <c r="N57" s="64"/>
-      <c r="O57" s="64"/>
-      <c r="P57" s="64"/>
-      <c r="Q57" s="64"/>
-      <c r="R57" s="65"/>
+      <c r="A57" s="104"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="105"/>
+      <c r="N57" s="105"/>
+      <c r="O57" s="105"/>
+      <c r="P57" s="105"/>
+      <c r="Q57" s="105"/>
+      <c r="R57" s="106"/>
       <c r="S57" s="45"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
@@ -3173,24 +3179,24 @@
       <c r="AA57" s="5"/>
     </row>
     <row r="58" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A58" s="63"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
-      <c r="P58" s="64"/>
-      <c r="Q58" s="64"/>
-      <c r="R58" s="65"/>
+      <c r="A58" s="104"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="105"/>
+      <c r="K58" s="105"/>
+      <c r="L58" s="105"/>
+      <c r="M58" s="105"/>
+      <c r="N58" s="105"/>
+      <c r="O58" s="105"/>
+      <c r="P58" s="105"/>
+      <c r="Q58" s="105"/>
+      <c r="R58" s="106"/>
       <c r="S58" s="45"/>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
@@ -3202,24 +3208,24 @@
       <c r="AA58" s="5"/>
     </row>
     <row r="59" spans="1:27" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A59" s="66"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="67"/>
-      <c r="N59" s="67"/>
-      <c r="O59" s="67"/>
-      <c r="P59" s="67"/>
-      <c r="Q59" s="67"/>
-      <c r="R59" s="68"/>
+      <c r="A59" s="107"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
+      <c r="I59" s="108"/>
+      <c r="J59" s="108"/>
+      <c r="K59" s="108"/>
+      <c r="L59" s="108"/>
+      <c r="M59" s="108"/>
+      <c r="N59" s="108"/>
+      <c r="O59" s="108"/>
+      <c r="P59" s="108"/>
+      <c r="Q59" s="108"/>
+      <c r="R59" s="109"/>
       <c r="S59" s="45"/>
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
@@ -3232,11 +3238,11 @@
     </row>
     <row r="60" spans="1:27" ht="30" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="62" t="s">
+      <c r="B60" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
       <c r="E60" s="1"/>
       <c r="F60" s="2"/>
       <c r="G60" s="5"/>
@@ -28640,6 +28646,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="A30:R53"/>
+    <mergeCell ref="A54:R59"/>
+    <mergeCell ref="A22:R28"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="Q4:R14"/>
+    <mergeCell ref="M6:P6"/>
     <mergeCell ref="M17:R18"/>
     <mergeCell ref="M16:R16"/>
     <mergeCell ref="M19:R19"/>
@@ -28656,33 +28689,6 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="Q4:R14"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="A30:R53"/>
-    <mergeCell ref="A54:R59"/>
-    <mergeCell ref="A22:R28"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="F15:H15"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.51180555555555596" right="0.15625" top="0.196527777777778" bottom="0.15625" header="0" footer="0"/>

--- a/template/productp1.xlsx
+++ b/template/productp1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117C5EE2-AD68-4E58-91B4-12D86DE7D05B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DCA3F5-6390-4E90-822F-1FA347ECF59B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21615" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>客    户：</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>净重:</t>
-  </si>
-  <si>
-    <t>毛重:</t>
   </si>
   <si>
     <t>裁法</t>
@@ -259,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -492,19 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -660,11 +644,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="120">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -732,37 +751,22 @@
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -813,7 +817,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -822,10 +826,10 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,104 +844,69 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="31" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,62 +917,106 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA935"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -1476,26 +1489,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="33" customHeight="1">
-      <c r="A1" s="71" t="s">
-        <v>22</v>
+      <c r="A1" s="102" t="s">
+        <v>21</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="72"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="71"/>
       <c r="S1" s="4"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -1511,25 +1524,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="48"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
       <c r="R2" s="2"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
@@ -1546,26 +1559,26 @@
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="48"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="2"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="74"/>
       <c r="S3" s="7"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -1577,28 +1590,28 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="1:27" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="10"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="86"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="89"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -1610,32 +1623,32 @@
       <c r="AA4" s="5"/>
     </row>
     <row r="5" spans="1:27" ht="21" customHeight="1">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="81" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="107" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="N5" s="14"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="87"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="90"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -1647,28 +1660,28 @@
       <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:27" ht="21" customHeight="1" thickBot="1">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="101"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="87"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="90"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -1680,24 +1693,24 @@
       <c r="AA6" s="5"/>
     </row>
     <row r="7" spans="1:27" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="120"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="57"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="18"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="87"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="90"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -1709,24 +1722,24 @@
       <c r="AA7" s="5"/>
     </row>
     <row r="8" spans="1:27" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="120"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="57"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="52"/>
       <c r="M8" s="18"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="87"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="90"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -1738,24 +1751,24 @@
       <c r="AA8" s="5"/>
     </row>
     <row r="9" spans="1:27" ht="30" customHeight="1" thickBot="1">
-      <c r="A9" s="120"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="58"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="57"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="52"/>
       <c r="M9" s="18"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="87"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="90"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -1767,24 +1780,24 @@
       <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="1:27" ht="30" customHeight="1" thickBot="1">
-      <c r="A10" s="120"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="58"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="57"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="52"/>
       <c r="M10" s="18"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="87"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="90"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -1796,24 +1809,24 @@
       <c r="AA10" s="5"/>
     </row>
     <row r="11" spans="1:27" ht="30" customHeight="1" thickBot="1">
-      <c r="A11" s="120"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="57"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="52"/>
       <c r="M11" s="18"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="87"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="90"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -1825,26 +1838,26 @@
       <c r="AA11" s="5"/>
     </row>
     <row r="12" spans="1:27" ht="36" customHeight="1">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="57"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="52"/>
       <c r="M12" s="18"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="87"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="90"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -1856,26 +1869,26 @@
       <c r="AA12" s="7"/>
     </row>
     <row r="13" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A13" s="103" t="s">
-        <v>26</v>
+      <c r="A13" s="86" t="s">
+        <v>25</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="98"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="76"/>
       <c r="M13" s="20"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="87"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="90"/>
       <c r="S13" s="22"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -1887,24 +1900,24 @@
       <c r="AA13" s="7"/>
     </row>
     <row r="14" spans="1:27" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A14" s="95"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="89"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="66"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -1916,30 +1929,28 @@
       <c r="AA14" s="7"/>
     </row>
     <row r="15" spans="1:27" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="111"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="89"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="66"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -1951,26 +1962,26 @@
       <c r="AA15" s="7"/>
     </row>
     <row r="16" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A16" s="117" t="s">
-        <v>23</v>
+      <c r="A16" s="80" t="s">
+        <v>22</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="67"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="98"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -1982,146 +1993,146 @@
       <c r="AA16" s="7"/>
     </row>
     <row r="17" spans="1:27" ht="22.5" customHeight="1">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+    </row>
+    <row r="18" spans="1:27" ht="12.75" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+    </row>
+    <row r="19" spans="1:27" ht="21" customHeight="1" thickBot="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+    </row>
+    <row r="20" spans="1:27" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-    </row>
-    <row r="18" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-    </row>
-    <row r="19" spans="1:27" ht="21" customHeight="1" thickBot="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-    </row>
-    <row r="20" spans="1:27" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="114" t="s">
-        <v>19</v>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+    </row>
+    <row r="21" spans="1:27" ht="20.25" customHeight="1">
+      <c r="A21" s="50" t="s">
+        <v>24</v>
       </c>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-    </row>
-    <row r="21" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A21" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="46"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -2133,24 +2144,24 @@
       <c r="AA21" s="5"/>
     </row>
     <row r="22" spans="1:27" ht="31.5" customHeight="1">
-      <c r="A22" s="110"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="112"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="63"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -2162,24 +2173,24 @@
       <c r="AA22" s="5"/>
     </row>
     <row r="23" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A23" s="110"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="112"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="63"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -2191,955 +2202,955 @@
       <c r="AA23" s="5"/>
     </row>
     <row r="24" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A24" s="110"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="63"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
       <c r="AA24" s="5"/>
     </row>
     <row r="25" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A25" s="110"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="112"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="63"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
       <c r="AA25" s="5"/>
     </row>
     <row r="26" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A26" s="110"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="111"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="112"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="63"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
       <c r="AA26" s="5"/>
     </row>
     <row r="27" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A27" s="110"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
       <c r="AA27" s="5"/>
     </row>
     <row r="28" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A28" s="110"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="112"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="63"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
       <c r="AA28" s="5"/>
     </row>
     <row r="29" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A29" s="54" t="s">
-        <v>20</v>
+      <c r="A29" s="49" t="s">
+        <v>19</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="53"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="48"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
       <c r="AA29" s="5"/>
     </row>
     <row r="30" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
-      <c r="O30" s="105"/>
-      <c r="P30" s="105"/>
-      <c r="Q30" s="105"/>
-      <c r="R30" s="106"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="57"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
       <c r="AA30" s="5"/>
     </row>
     <row r="31" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
-      <c r="O31" s="105"/>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="105"/>
-      <c r="R31" s="106"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="57"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
       <c r="AA31" s="5"/>
     </row>
     <row r="32" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A32" s="104"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="106"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="57"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
       <c r="AA32" s="5"/>
     </row>
     <row r="33" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A33" s="104"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="105"/>
-      <c r="P33" s="105"/>
-      <c r="Q33" s="105"/>
-      <c r="R33" s="106"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="57"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
       <c r="AA33" s="5"/>
     </row>
     <row r="34" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A34" s="104"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="105"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="106"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="57"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="45"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
       <c r="AA34" s="5"/>
     </row>
     <row r="35" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A35" s="104"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="106"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="57"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="45"/>
-      <c r="Z35" s="45"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
       <c r="AA35" s="5"/>
     </row>
     <row r="36" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A36" s="104"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="105"/>
-      <c r="P36" s="105"/>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="106"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="57"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="45"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
       <c r="AA36" s="5"/>
     </row>
     <row r="37" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A37" s="104"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="105"/>
-      <c r="O37" s="105"/>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="105"/>
-      <c r="R37" s="106"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="57"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
       <c r="AA37" s="5"/>
     </row>
     <row r="38" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A38" s="104"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="105"/>
-      <c r="O38" s="105"/>
-      <c r="P38" s="105"/>
-      <c r="Q38" s="105"/>
-      <c r="R38" s="106"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="57"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
       <c r="AA38" s="5"/>
     </row>
     <row r="39" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A39" s="104"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="105"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="106"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="57"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="45"/>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
       <c r="AA39" s="5"/>
     </row>
     <row r="40" spans="1:27" ht="17.25" customHeight="1">
-      <c r="A40" s="104"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="105"/>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="106"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="57"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
       <c r="AA40" s="5"/>
     </row>
     <row r="41" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A41" s="104"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
-      <c r="O41" s="105"/>
-      <c r="P41" s="105"/>
-      <c r="Q41" s="105"/>
-      <c r="R41" s="106"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="57"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="45"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
       <c r="AA41" s="5"/>
     </row>
     <row r="42" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A42" s="104"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="105"/>
-      <c r="Q42" s="105"/>
-      <c r="R42" s="106"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="57"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="45"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="40"/>
       <c r="AA42" s="5"/>
     </row>
     <row r="43" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A43" s="104"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
-      <c r="O43" s="105"/>
-      <c r="P43" s="105"/>
-      <c r="Q43" s="105"/>
-      <c r="R43" s="106"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="57"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="45"/>
-      <c r="X43" s="45"/>
-      <c r="Y43" s="45"/>
-      <c r="Z43" s="45"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
       <c r="AA43" s="5"/>
     </row>
     <row r="44" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A44" s="104"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="105"/>
-      <c r="N44" s="105"/>
-      <c r="O44" s="105"/>
-      <c r="P44" s="105"/>
-      <c r="Q44" s="105"/>
-      <c r="R44" s="106"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="57"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="45"/>
-      <c r="Z44" s="45"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="40"/>
       <c r="AA44" s="5"/>
     </row>
     <row r="45" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A45" s="104"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
-      <c r="M45" s="105"/>
-      <c r="N45" s="105"/>
-      <c r="O45" s="105"/>
-      <c r="P45" s="105"/>
-      <c r="Q45" s="105"/>
-      <c r="R45" s="106"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="57"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
-      <c r="V45" s="45"/>
-      <c r="W45" s="45"/>
-      <c r="X45" s="45"/>
-      <c r="Y45" s="45"/>
-      <c r="Z45" s="45"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
       <c r="AA45" s="5"/>
     </row>
     <row r="46" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A46" s="104"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="105"/>
-      <c r="M46" s="105"/>
-      <c r="N46" s="105"/>
-      <c r="O46" s="105"/>
-      <c r="P46" s="105"/>
-      <c r="Q46" s="105"/>
-      <c r="R46" s="106"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="57"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
-      <c r="V46" s="45"/>
-      <c r="W46" s="45"/>
-      <c r="X46" s="45"/>
-      <c r="Y46" s="45"/>
-      <c r="Z46" s="45"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
       <c r="AA46" s="5"/>
     </row>
     <row r="47" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A47" s="104"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="105"/>
-      <c r="N47" s="105"/>
-      <c r="O47" s="105"/>
-      <c r="P47" s="105"/>
-      <c r="Q47" s="105"/>
-      <c r="R47" s="106"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="57"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="45"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="45"/>
-      <c r="Z47" s="45"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
       <c r="AA47" s="5"/>
     </row>
     <row r="48" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A48" s="104"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
-      <c r="M48" s="105"/>
-      <c r="N48" s="105"/>
-      <c r="O48" s="105"/>
-      <c r="P48" s="105"/>
-      <c r="Q48" s="105"/>
-      <c r="R48" s="106"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="57"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
-      <c r="V48" s="45"/>
-      <c r="W48" s="45"/>
-      <c r="X48" s="45"/>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="40"/>
       <c r="AA48" s="5"/>
     </row>
     <row r="49" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A49" s="104"/>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="105"/>
-      <c r="K49" s="105"/>
-      <c r="L49" s="105"/>
-      <c r="M49" s="105"/>
-      <c r="N49" s="105"/>
-      <c r="O49" s="105"/>
-      <c r="P49" s="105"/>
-      <c r="Q49" s="105"/>
-      <c r="R49" s="106"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="57"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="45"/>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="45"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40"/>
       <c r="AA49" s="5"/>
     </row>
     <row r="50" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A50" s="104"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105"/>
-      <c r="L50" s="105"/>
-      <c r="M50" s="105"/>
-      <c r="N50" s="105"/>
-      <c r="O50" s="105"/>
-      <c r="P50" s="105"/>
-      <c r="Q50" s="105"/>
-      <c r="R50" s="106"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="57"/>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
-      <c r="V50" s="45"/>
-      <c r="W50" s="45"/>
-      <c r="X50" s="45"/>
-      <c r="Y50" s="45"/>
-      <c r="Z50" s="45"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="40"/>
       <c r="AA50" s="5"/>
     </row>
     <row r="51" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A51" s="104"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="105"/>
-      <c r="K51" s="105"/>
-      <c r="L51" s="105"/>
-      <c r="M51" s="105"/>
-      <c r="N51" s="105"/>
-      <c r="O51" s="105"/>
-      <c r="P51" s="105"/>
-      <c r="Q51" s="105"/>
-      <c r="R51" s="106"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="57"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
-      <c r="V51" s="45"/>
-      <c r="W51" s="45"/>
-      <c r="X51" s="45"/>
-      <c r="Y51" s="45"/>
-      <c r="Z51" s="45"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
+      <c r="Z51" s="40"/>
       <c r="AA51" s="5"/>
     </row>
     <row r="52" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A52" s="104"/>
-      <c r="B52" s="105"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="105"/>
-      <c r="K52" s="105"/>
-      <c r="L52" s="105"/>
-      <c r="M52" s="105"/>
-      <c r="N52" s="105"/>
-      <c r="O52" s="105"/>
-      <c r="P52" s="105"/>
-      <c r="Q52" s="105"/>
-      <c r="R52" s="106"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="57"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
-      <c r="V52" s="45"/>
-      <c r="W52" s="45"/>
-      <c r="X52" s="45"/>
-      <c r="Y52" s="45"/>
-      <c r="Z52" s="45"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="40"/>
       <c r="AA52" s="5"/>
     </row>
     <row r="53" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A53" s="104"/>
-      <c r="B53" s="105"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="105"/>
-      <c r="L53" s="105"/>
-      <c r="M53" s="105"/>
-      <c r="N53" s="105"/>
-      <c r="O53" s="105"/>
-      <c r="P53" s="105"/>
-      <c r="Q53" s="105"/>
-      <c r="R53" s="106"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="57"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
-      <c r="V53" s="45"/>
-      <c r="W53" s="45"/>
-      <c r="X53" s="45"/>
-      <c r="Y53" s="45"/>
-      <c r="Z53" s="45"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="40"/>
       <c r="AA53" s="5"/>
     </row>
     <row r="54" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A54" s="104"/>
-      <c r="B54" s="105"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="105"/>
-      <c r="K54" s="105"/>
-      <c r="L54" s="105"/>
-      <c r="M54" s="105"/>
-      <c r="N54" s="105"/>
-      <c r="O54" s="105"/>
-      <c r="P54" s="105"/>
-      <c r="Q54" s="105"/>
-      <c r="R54" s="106"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="57"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
-      <c r="V54" s="45"/>
-      <c r="W54" s="45"/>
-      <c r="X54" s="45"/>
-      <c r="Y54" s="45"/>
-      <c r="Z54" s="45"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
       <c r="AA54" s="5"/>
     </row>
     <row r="55" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A55" s="104"/>
-      <c r="B55" s="105"/>
-      <c r="C55" s="105"/>
-      <c r="D55" s="105"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="105"/>
-      <c r="J55" s="105"/>
-      <c r="K55" s="105"/>
-      <c r="L55" s="105"/>
-      <c r="M55" s="105"/>
-      <c r="N55" s="105"/>
-      <c r="O55" s="105"/>
-      <c r="P55" s="105"/>
-      <c r="Q55" s="105"/>
-      <c r="R55" s="106"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="57"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
-      <c r="V55" s="45"/>
-      <c r="W55" s="45"/>
-      <c r="X55" s="45"/>
-      <c r="Y55" s="45"/>
-      <c r="Z55" s="45"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="40"/>
       <c r="AA55" s="5"/>
     </row>
     <row r="56" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A56" s="104"/>
-      <c r="B56" s="105"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="105"/>
-      <c r="L56" s="105"/>
-      <c r="M56" s="105"/>
-      <c r="N56" s="105"/>
-      <c r="O56" s="105"/>
-      <c r="P56" s="105"/>
-      <c r="Q56" s="105"/>
-      <c r="R56" s="106"/>
-      <c r="S56" s="45"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="57"/>
+      <c r="S56" s="40"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
@@ -3150,25 +3161,25 @@
       <c r="AA56" s="5"/>
     </row>
     <row r="57" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A57" s="104"/>
-      <c r="B57" s="105"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="105"/>
-      <c r="K57" s="105"/>
-      <c r="L57" s="105"/>
-      <c r="M57" s="105"/>
-      <c r="N57" s="105"/>
-      <c r="O57" s="105"/>
-      <c r="P57" s="105"/>
-      <c r="Q57" s="105"/>
-      <c r="R57" s="106"/>
-      <c r="S57" s="45"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="57"/>
+      <c r="S57" s="40"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
@@ -3179,25 +3190,25 @@
       <c r="AA57" s="5"/>
     </row>
     <row r="58" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A58" s="104"/>
-      <c r="B58" s="105"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="105"/>
-      <c r="K58" s="105"/>
-      <c r="L58" s="105"/>
-      <c r="M58" s="105"/>
-      <c r="N58" s="105"/>
-      <c r="O58" s="105"/>
-      <c r="P58" s="105"/>
-      <c r="Q58" s="105"/>
-      <c r="R58" s="106"/>
-      <c r="S58" s="45"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="57"/>
+      <c r="S58" s="40"/>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
@@ -3208,25 +3219,25 @@
       <c r="AA58" s="5"/>
     </row>
     <row r="59" spans="1:27" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A59" s="107"/>
-      <c r="B59" s="108"/>
-      <c r="C59" s="108"/>
-      <c r="D59" s="108"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="108"/>
-      <c r="G59" s="108"/>
-      <c r="H59" s="108"/>
-      <c r="I59" s="108"/>
-      <c r="J59" s="108"/>
-      <c r="K59" s="108"/>
-      <c r="L59" s="108"/>
-      <c r="M59" s="108"/>
-      <c r="N59" s="108"/>
-      <c r="O59" s="108"/>
-      <c r="P59" s="108"/>
-      <c r="Q59" s="108"/>
-      <c r="R59" s="109"/>
-      <c r="S59" s="45"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="40"/>
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
@@ -3238,17 +3249,17 @@
     </row>
     <row r="60" spans="1:27" ht="30" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="66" t="s">
-        <v>24</v>
+      <c r="B60" s="54" t="s">
+        <v>23</v>
       </c>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
       <c r="E60" s="1"/>
       <c r="F60" s="2"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -3262,11 +3273,11 @@
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
-      <c r="V60" s="45"/>
-      <c r="W60" s="45"/>
-      <c r="X60" s="45"/>
-      <c r="Y60" s="45"/>
-      <c r="Z60" s="45"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="40"/>
+      <c r="Z60" s="40"/>
       <c r="AA60" s="5"/>
     </row>
     <row r="61" spans="1:27" ht="17.25" customHeight="1">
@@ -28645,15 +28656,27 @@
       <c r="AA935" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="A30:R53"/>
-    <mergeCell ref="A54:R59"/>
-    <mergeCell ref="A22:R28"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="F15:H15"/>
+  <mergeCells count="44">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="Q4:R14"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M17:R18"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:L15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A14:B14"/>
@@ -28670,25 +28693,14 @@
     <mergeCell ref="A13:L13"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="Q4:R14"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M17:R18"/>
-    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="A30:R53"/>
+    <mergeCell ref="A54:R59"/>
+    <mergeCell ref="A22:R28"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="A16:K16"/>
     <mergeCell ref="M19:R19"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.51180555555555596" right="0.15625" top="0.196527777777778" bottom="0.15625" header="0" footer="0"/>
